--- a/주특기 숙련주차 과제2/주특기 숙련 주차 과제2 API 명세서.xlsx
+++ b/주특기 숙련주차 과제2/주특기 숙련 주차 과제2 API 명세서.xlsx
@@ -5,11 +5,11 @@
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이승열\Desktop\항해99\주특기 숙련주차 과제1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\이승열\Desktop\항해99\주특기 숙련주차 과제2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="12060" tabRatio="500"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" tabRatio="500"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId4"/>
@@ -19,22 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+  <x:si>
+    <x:t>게시글 전체 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+username일치 여부
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"msg": "회원가입 성공"
+"statusCode": 200
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"msg": "삭제 완료"
+"statusCode": 200
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"msg": "로그인 성공"
+"statusCode": 200
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>{
+"username": 아이디
+"password": 비밀번호
+}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>댓글 작성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jwt 토큰</x:t>
+  </x:si>
   <x:si>
     <x:t>username:  최소 4자 이상, 10자 이하이며 알파벳 소문자(a~z), 숫자(0~9)
 password:  최소 8자 이상, 15자 이하이며 알파벳 대소문자(a~z, A~Z), 숫자(0~9)</x:t>
   </x:si>
   <x:si>
-    <x:t>/api/auth/login</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/post/{id}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토큰 유효성 검사</x:t>
+    <x:t>선택한 게시글 조회</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택한 게시글 수정</x:t>
   </x:si>
   <x:si>
     <x:t>/api/auth/signup</x:t>
+  </x:si>
+  <x:si>
+    <x:t>토큰 유효성 검사, 작성자 확인</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -43,24 +81,6 @@
 "content": 작성내용
 "createdAt": 작성날짜
 }</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택한 글 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택한 글 수정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>response</x:t>
-  </x:si>
-  <x:si>
-    <x:t>/api/posts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>선택한 글 삭제</x:t>
   </x:si>
   <x:si>
     <x:t>{
@@ -72,92 +92,90 @@
 }</x:t>
   </x:si>
   <x:si>
+    <x:t>/api/post/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/auth/login</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Http header</x:t>
+  </x:si>
+  <x:si>
     <x:t>로그인</x:t>
   </x:si>
   <x:si>
+    <x:t>url</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Get</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Put</x:t>
+  </x:si>
+  <x:si>
     <x:t>기능</x:t>
   </x:si>
   <x:si>
-    <x:t>Get</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Put</x:t>
-  </x:si>
-  <x:si>
-    <x:t>url</x:t>
+    <x:t>토큰 유효성 검사</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/posts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>response</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회원가입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Post</x:t>
+  </x:si>
+  <x:si>
+    <x:t>method</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Delete</x:t>
+  </x:si>
+  <x:si>
+    <x:t>추가기능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해결과제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내림차순 정렬</x:t>
+  </x:si>
+  <x:si>
+    <x:t>request</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주특기 숙련주차 과제1 API 명세서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>/api/comment/{id}</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택한 게시글 삭제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>선택한 게시글 저장 유무 확인</x:t>
+  </x:si>
+  <x:si>
+    <x:t>게시글 작성</x:t>
   </x:si>
   <x:si>
     <x:t>{
-"msg": "회원가입 성공"
-"statusCode": 200
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"msg": "삭제 완료"
-"statusCode": 200
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"msg": "로그인 성공"
-"statusCode": 200
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>{
-"username": 아이디
-"password": 비밀번호
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회원가입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Post</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Delete</x:t>
-  </x:si>
-  <x:si>
-    <x:t>글 작성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>method</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내림차순 정렬</x:t>
-  </x:si>
-  <x:si>
-    <x:t>전체 조회</x:t>
-  </x:si>
-  <x:si>
-    <x:t>request</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jwt 토큰
-{
-username일치 여부
-}</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주특기 숙련주차 과제1 API 명세서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>추가기능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>jwt 토큰
-{
 "title": 제목
 "content": 작성내용
 }</x:t>
   </x:si>
   <x:si>
-    <x:t>해결과제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>토큰 유효성 검사, 작성자 확인</x:t>
+    <x:t>{
+"comment": 댓글내용
+}</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -251,13 +269,16 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="8">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -305,8 +326,14 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0" iLevel="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -315,7 +342,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -398,7 +424,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -433,7 +458,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -478,7 +502,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -522,7 +545,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -607,7 +629,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -628,7 +649,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -659,7 +679,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1025,191 +1044,232 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet1"/>
-  <x:dimension ref="B2:H11"/>
+  <x:dimension ref="B2:I12"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="B5" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="H10" activeCellId="0" sqref="H10:H10"/>
+    <x:sheetView tabSelected="1" topLeftCell="B6" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="T9" activeCellId="0" sqref="T9:T9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="9.00390625" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
-    <x:col min="2" max="2" width="15.625" customWidth="1"/>
+    <x:col min="2" max="2" width="17.4609375" bestFit="1" customWidth="1"/>
     <x:col min="3" max="3" width="19.359375" bestFit="1" customWidth="1"/>
-    <x:col min="5" max="5" width="24.5" customWidth="1"/>
-    <x:col min="6" max="6" width="22.875" customWidth="1"/>
-    <x:col min="7" max="7" width="69.09765625" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="12.3828125" bestFit="1" customWidth="1"/>
+    <x:col min="6" max="6" width="24.5" customWidth="1"/>
+    <x:col min="7" max="7" width="22.875" customWidth="1"/>
+    <x:col min="8" max="8" width="69.09765625" bestFit="1" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="2:7" ht="26.35000000000000142109">
+    <x:row r="2" spans="2:8" ht="26.35000000000000142109">
       <x:c r="B2" s="5" t="s">
-        <x:v>31</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C2" s="5"/>
       <x:c r="D2" s="5"/>
       <x:c r="E2" s="5"/>
       <x:c r="F2" s="5"/>
       <x:c r="G2" s="5"/>
+      <x:c r="H2" s="5"/>
     </x:row>
-    <x:row r="4" spans="2:8">
+    <x:row r="4" spans="2:9">
       <x:c r="B4" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="I4" t="s">
+        <x:v>32</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:8" ht="65.5">
+      <x:c r="B5" s="2" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E5" s="2"/>
+      <x:c r="F5" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G5" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="H5" s="4" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:8" ht="65.5">
+      <x:c r="B6" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C6" s="3" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E6" s="2"/>
+      <x:c r="F6" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="G6" s="4" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H6" s="3"/>
+    </x:row>
+    <x:row r="7" spans="2:8" ht="114.59999999999999431566">
+      <x:c r="B7" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C7" s="3" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E7" s="2"/>
+      <x:c r="F7" s="3"/>
+      <x:c r="G7" s="4" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
+      <x:c r="H7" s="3" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="2:8" ht="98.25">
+      <x:c r="B8" s="2" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C8" s="3" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F8" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G8" s="4" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="H8" s="3" t="s">
+        <x:v>23</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:8" ht="114.59999999999999431566">
+      <x:c r="B9" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G4" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H4" t="s">
-        <x:v>34</x:v>
-      </x:c>
+      <x:c r="C9" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E9" s="2"/>
+      <x:c r="F9" s="3"/>
+      <x:c r="G9" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H9" s="3"/>
     </x:row>
-    <x:row r="5" spans="2:7" ht="65.5">
-      <x:c r="B5" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C5" s="3" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D5" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E5" s="4" t="s">
+    <x:row r="10" spans="2:8" ht="114.59999999999999431566">
+      <x:c r="B10" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C10" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="F5" s="4" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="G5" s="4" t="s">
-        <x:v>0</x:v>
+      <x:c r="E10" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F10" s="4" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="G10" s="4" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H10" s="3" t="s">
+        <x:v>12</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="2:7" ht="65.5">
-      <x:c r="B6" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C6" s="3" t="s">
+    <x:row r="11" spans="2:8" ht="65.5">
+      <x:c r="B11" s="2" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C11" s="3" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="F11" s="4" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D6" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E6" s="4" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F6" s="4" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="G6" s="3"/>
+      <x:c r="G11" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="H11" s="3" t="s">
+        <x:v>12</x:v>
+      </x:c>
     </x:row>
-    <x:row r="7" spans="2:7" ht="114.59999999999999431566">
-      <x:c r="B7" s="2" t="s">
+    <x:row r="12" spans="2:8" ht="49.14999999999999857891">
+      <x:c r="B12" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C12" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D12" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="C7" s="3" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E7" s="3"/>
-      <x:c r="F7" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G7" s="3" t="s">
-        <x:v>27</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:7" ht="98.25">
-      <x:c r="B8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C8" s="3" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E8" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F8" s="4" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="G8" s="3" t="s">
-        <x:v>3</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:7" ht="114.59999999999999431566">
-      <x:c r="B9" s="2" t="s">
+      <x:c r="E12" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C9" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D9" s="2" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="E9" s="3"/>
-      <x:c r="F9" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G9" s="3"/>
-    </x:row>
-    <x:row r="10" spans="2:7" ht="114.59999999999999431566">
-      <x:c r="B10" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C10" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D10" s="2" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E10" s="4" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F10" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="G10" s="3" t="s">
-        <x:v>35</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:7" ht="65.5">
-      <x:c r="B11" s="2" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C11" s="3" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D11" s="2" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="E11" s="4" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="F11" s="4" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G11" s="3" t="s">
-        <x:v>35</x:v>
+      <x:c r="F12" s="6" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G12" s="7" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H12" t="s">
+        <x:v>38</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
-    <x:mergeCell ref="B2:G2"/>
+    <x:mergeCell ref="B2:H2"/>
   </x:mergeCells>
-  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51152777671813964844" footer="0.51152777671813964844"/>
+  <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
 </file>